--- a/narratives_extracted.xlsx
+++ b/narratives_extracted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aayush Sharma\Documents\GitHub\lumina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcpsj-my.sharepoint.com/personal/a_olakangil26_bcp_org/Documents/Documents/code/lumina/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{29C0C62D-C8B8-4D87-8A48-179057A83A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="3210" windowWidth="42840" windowHeight="15345" xr2:uid="{5A94BD83-10A2-4F03-82D2-7F9FE3BF736C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{5A94BD83-10A2-4F03-82D2-7F9FE3BF736C}"/>
   </bookViews>
   <sheets>
     <sheet name="narratives_extracted" sheetId="1" r:id="rId1"/>
@@ -21207,18 +21207,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AE1B3D-B436-41F0-A4B1-143600B2DD68}">
   <dimension ref="A1:H732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="5" max="5" width="103.140625" customWidth="1"/>
-    <col min="6" max="6" width="144.85546875" customWidth="1"/>
+    <col min="5" max="5" width="103.1328125" customWidth="1"/>
+    <col min="6" max="6" width="144.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21244,7 +21244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -21270,7 +21270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -21322,7 +21322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -21374,7 +21374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -21426,7 +21426,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -21504,7 +21504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -21686,7 +21686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -21738,7 +21738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -21764,7 +21764,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -21790,7 +21790,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -21920,7 +21920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -21972,7 +21972,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -22024,7 +22024,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -22232,7 +22232,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>196</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>196</v>
       </c>
@@ -22336,7 +22336,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>196</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>196</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -22414,7 +22414,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>196</v>
       </c>
@@ -22440,7 +22440,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>196</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>196</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>196</v>
       </c>
@@ -22518,7 +22518,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>239</v>
       </c>
@@ -22544,7 +22544,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>239</v>
       </c>
@@ -22570,7 +22570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>239</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>239</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>239</v>
       </c>
@@ -22668,7 +22668,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -22694,7 +22694,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -22717,7 +22717,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>239</v>
       </c>
@@ -22743,7 +22743,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>282</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>282</v>
       </c>
@@ -22818,7 +22818,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>282</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>282</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -22916,7 +22916,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>318</v>
       </c>
@@ -22939,7 +22939,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>318</v>
       </c>
@@ -22962,7 +22962,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>318</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -23008,7 +23008,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>318</v>
       </c>
@@ -23031,7 +23031,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>318</v>
       </c>
@@ -23054,7 +23054,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>318</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>318</v>
       </c>
@@ -23100,7 +23100,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>357</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>357</v>
       </c>
@@ -23149,7 +23149,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>357</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>357</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>357</v>
       </c>
@@ -23224,7 +23224,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>357</v>
       </c>
@@ -23247,7 +23247,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>357</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>357</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>357</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>357</v>
       </c>
@@ -23345,7 +23345,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>407</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -23391,7 +23391,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>407</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>407</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>407</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>407</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>407</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>407</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>407</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>447</v>
       </c>
@@ -23578,7 +23578,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>447</v>
       </c>
@@ -23601,7 +23601,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>447</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>447</v>
       </c>
@@ -23647,7 +23647,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>447</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>447</v>
       </c>
@@ -23693,7 +23693,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>447</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>447</v>
       </c>
@@ -23742,7 +23742,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>447</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>447</v>
       </c>
@@ -23791,7 +23791,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>496</v>
       </c>
@@ -23817,7 +23817,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>496</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>496</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>496</v>
       </c>
@@ -23895,7 +23895,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>496</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>496</v>
       </c>
@@ -23944,7 +23944,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>496</v>
       </c>
@@ -23970,7 +23970,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>529</v>
       </c>
@@ -23996,7 +23996,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>529</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>529</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>529</v>
       </c>
@@ -24071,7 +24071,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>529</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>529</v>
       </c>
@@ -24120,7 +24120,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>529</v>
       </c>
@@ -24146,7 +24146,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>529</v>
       </c>
@@ -24169,7 +24169,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>529</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>529</v>
       </c>
@@ -24215,7 +24215,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>529</v>
       </c>
@@ -24241,7 +24241,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>582</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>582</v>
       </c>
@@ -24290,7 +24290,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>582</v>
       </c>
@@ -24316,7 +24316,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>582</v>
       </c>
@@ -24339,7 +24339,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>582</v>
       </c>
@@ -24365,7 +24365,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>582</v>
       </c>
@@ -24388,7 +24388,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>582</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>582</v>
       </c>
@@ -24440,7 +24440,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>582</v>
       </c>
@@ -24463,7 +24463,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>625</v>
       </c>
@@ -24486,7 +24486,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>625</v>
       </c>
@@ -24512,7 +24512,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>625</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>625</v>
       </c>
@@ -24561,7 +24561,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>625</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>625</v>
       </c>
@@ -24610,7 +24610,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>625</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>625</v>
       </c>
@@ -24662,7 +24662,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>625</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>625</v>
       </c>
@@ -24711,7 +24711,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>625</v>
       </c>
@@ -24737,7 +24737,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>681</v>
       </c>
@@ -24763,7 +24763,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>681</v>
       </c>
@@ -24786,7 +24786,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>681</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>681</v>
       </c>
@@ -24835,7 +24835,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>681</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>681</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>681</v>
       </c>
@@ -24907,7 +24907,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>681</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>681</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>681</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>722</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>722</v>
       </c>
@@ -25028,7 +25028,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>722</v>
       </c>
@@ -25054,7 +25054,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>722</v>
       </c>
@@ -25080,7 +25080,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>722</v>
       </c>
@@ -25106,7 +25106,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>722</v>
       </c>
@@ -25129,7 +25129,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>722</v>
       </c>
@@ -25152,7 +25152,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>722</v>
       </c>
@@ -25175,7 +25175,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>722</v>
       </c>
@@ -25198,7 +25198,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>722</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>766</v>
       </c>
@@ -25247,7 +25247,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>766</v>
       </c>
@@ -25273,7 +25273,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>766</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>766</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>766</v>
       </c>
@@ -25351,7 +25351,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>766</v>
       </c>
@@ -25377,7 +25377,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>795</v>
       </c>
@@ -25400,7 +25400,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>795</v>
       </c>
@@ -25426,7 +25426,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>795</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>795</v>
       </c>
@@ -25478,7 +25478,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>795</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>795</v>
       </c>
@@ -25530,7 +25530,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>795</v>
       </c>
@@ -25553,7 +25553,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>795</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>795</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>795</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>795</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>795</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>853</v>
       </c>
@@ -25703,7 +25703,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>853</v>
       </c>
@@ -25729,7 +25729,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>853</v>
       </c>
@@ -25755,7 +25755,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>853</v>
       </c>
@@ -25781,7 +25781,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>853</v>
       </c>
@@ -25807,7 +25807,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>853</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>853</v>
       </c>
@@ -25856,7 +25856,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>853</v>
       </c>
@@ -25882,7 +25882,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>853</v>
       </c>
@@ -25908,7 +25908,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>896</v>
       </c>
@@ -25925,12 +25925,12 @@
         <v>897</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>899</v>
       </c>
@@ -25938,12 +25938,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>902</v>
       </c>
@@ -25951,12 +25951,12 @@
         <v>903</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>905</v>
       </c>
@@ -25964,27 +25964,27 @@
         <v>906</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>911</v>
       </c>
@@ -25992,22 +25992,22 @@
         <v>912</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>915</v>
       </c>
@@ -26015,37 +26015,37 @@
         <v>916</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>920</v>
       </c>
@@ -26056,27 +26056,27 @@
         <v>922</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>924</v>
       </c>
@@ -26084,22 +26084,22 @@
         <v>925</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>928</v>
       </c>
@@ -26107,12 +26107,12 @@
         <v>929</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>931</v>
       </c>
@@ -26120,17 +26120,17 @@
         <v>932</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>935</v>
       </c>
@@ -26138,7 +26138,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>937</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>939</v>
       </c>
@@ -26154,12 +26154,12 @@
         <v>940</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>942</v>
       </c>
@@ -26170,17 +26170,17 @@
         <v>944</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>947</v>
       </c>
@@ -26188,27 +26188,27 @@
         <v>948</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>953</v>
       </c>
@@ -26216,12 +26216,12 @@
         <v>954</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>956</v>
       </c>
@@ -26229,57 +26229,57 @@
         <v>957</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>968</v>
       </c>
@@ -26287,87 +26287,87 @@
         <v>969</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>983</v>
       </c>
@@ -26375,12 +26375,12 @@
         <v>984</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>985</v>
       </c>
@@ -26388,32 +26388,32 @@
         <v>986</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>990</v>
       </c>
@@ -26421,62 +26421,62 @@
         <v>908</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>998</v>
       </c>
@@ -26484,22 +26484,22 @@
         <v>999</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>1003</v>
       </c>
@@ -26507,12 +26507,12 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>1006</v>
       </c>
@@ -26520,42 +26520,42 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>1015</v>
       </c>
@@ -26563,7 +26563,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>1017</v>
       </c>
@@ -26571,12 +26571,12 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>1020</v>
       </c>
@@ -26584,22 +26584,22 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>1025</v>
       </c>
@@ -26607,7 +26607,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>1027</v>
       </c>
@@ -26615,42 +26615,42 @@
         <v>908</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>1032</v>
       </c>
@@ -26658,32 +26658,32 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>1038</v>
       </c>
@@ -26691,37 +26691,37 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>1045</v>
       </c>
@@ -26729,12 +26729,12 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>1048</v>
       </c>
@@ -26742,67 +26742,67 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>1055</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>1059</v>
       </c>
@@ -26827,27 +26827,27 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>1066</v>
       </c>
@@ -26855,17 +26855,17 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>1070</v>
       </c>
@@ -26873,7 +26873,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>1072</v>
       </c>
@@ -26881,17 +26881,17 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>1076</v>
       </c>
@@ -26902,7 +26902,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>1078</v>
       </c>
@@ -26910,27 +26910,27 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>1084</v>
       </c>
@@ -26938,32 +26938,32 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>1091</v>
       </c>
@@ -26971,7 +26971,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>1093</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>1095</v>
       </c>
@@ -26987,12 +26987,12 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>1098</v>
       </c>
@@ -27003,12 +27003,12 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>1102</v>
       </c>
@@ -27016,12 +27016,12 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>1105</v>
       </c>
@@ -27032,7 +27032,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>1108</v>
       </c>
@@ -27040,7 +27040,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>1110</v>
       </c>
@@ -27048,17 +27048,17 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>1114</v>
       </c>
@@ -27069,62 +27069,62 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>1125</v>
       </c>
@@ -27132,17 +27132,17 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>1129</v>
       </c>
@@ -27150,22 +27150,22 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>1134</v>
       </c>
@@ -27173,7 +27173,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>1135</v>
       </c>
@@ -27181,17 +27181,17 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>1138</v>
       </c>
@@ -27199,22 +27199,22 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>1143</v>
       </c>
@@ -27222,7 +27222,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>1145</v>
       </c>
@@ -27230,27 +27230,27 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>1150</v>
       </c>
@@ -27258,7 +27258,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>1152</v>
       </c>
@@ -27269,7 +27269,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>1155</v>
       </c>
@@ -27277,7 +27277,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>1157</v>
       </c>
@@ -27285,12 +27285,12 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>1160</v>
       </c>
@@ -27298,7 +27298,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>1162</v>
       </c>
@@ -27306,17 +27306,17 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>1166</v>
       </c>
@@ -27327,7 +27327,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>1169</v>
       </c>
@@ -27338,17 +27338,17 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>1174</v>
       </c>
@@ -27359,17 +27359,17 @@
         <v>908</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>1178</v>
       </c>
@@ -27377,27 +27377,27 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>1181</v>
       </c>
@@ -27405,12 +27405,12 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>1184</v>
       </c>
@@ -27418,17 +27418,17 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>1188</v>
       </c>
@@ -27436,22 +27436,22 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>1192</v>
       </c>
@@ -27459,12 +27459,12 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>1195</v>
       </c>
@@ -27478,7 +27478,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>1199</v>
       </c>
@@ -27486,17 +27486,17 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>1203</v>
       </c>
@@ -27504,17 +27504,17 @@
         <v>969</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>1206</v>
       </c>
@@ -27531,7 +27531,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>1211</v>
       </c>
@@ -27539,7 +27539,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>1213</v>
       </c>
@@ -27547,7 +27547,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>1215</v>
       </c>
@@ -27555,22 +27555,22 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>1219</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>1221</v>
       </c>
@@ -27586,7 +27586,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>1223</v>
       </c>
@@ -27600,12 +27600,12 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>1228</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>1230</v>
       </c>
@@ -27624,7 +27624,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>1233</v>
       </c>
@@ -27635,7 +27635,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>1236</v>
       </c>
@@ -27643,7 +27643,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>1238</v>
       </c>
@@ -27654,17 +27654,17 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>1242</v>
       </c>
@@ -27678,7 +27678,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>1245</v>
       </c>
@@ -27689,67 +27689,67 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>1253</v>
       </c>
@@ -27757,17 +27757,17 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>1257</v>
       </c>
@@ -27775,22 +27775,22 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>1262</v>
       </c>
@@ -27798,17 +27798,17 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>1266</v>
       </c>
@@ -27816,7 +27816,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>1268</v>
       </c>
@@ -27824,17 +27824,17 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>1272</v>
       </c>
@@ -27842,12 +27842,12 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>1275</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>1277</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>1279</v>
       </c>
@@ -27871,12 +27871,12 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>1282</v>
       </c>
@@ -27884,7 +27884,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>1284</v>
       </c>
@@ -27892,12 +27892,12 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>1287</v>
       </c>
@@ -27905,7 +27905,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>1288</v>
       </c>
@@ -27913,12 +27913,12 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>1291</v>
       </c>
@@ -27929,7 +27929,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>1294</v>
       </c>
@@ -27937,17 +27937,17 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>1298</v>
       </c>
@@ -27958,12 +27958,12 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>1302</v>
       </c>
@@ -27977,42 +27977,42 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>1313</v>
       </c>
@@ -28020,7 +28020,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>1315</v>
       </c>
@@ -28028,12 +28028,12 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>1318</v>
       </c>
@@ -28044,47 +28044,47 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>1326</v>
       </c>
@@ -28092,47 +28092,47 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>911</v>
       </c>
@@ -28140,12 +28140,12 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>1338</v>
       </c>
@@ -28156,32 +28156,32 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>1345</v>
       </c>
@@ -28189,12 +28189,12 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>1348</v>
       </c>
@@ -28202,7 +28202,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>1350</v>
       </c>
@@ -28210,7 +28210,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>1352</v>
       </c>
@@ -28221,7 +28221,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>1355</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>1357</v>
       </c>
@@ -28240,7 +28240,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>1359</v>
       </c>
@@ -28251,12 +28251,12 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>1363</v>
       </c>
@@ -28264,7 +28264,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>1365</v>
       </c>
@@ -28275,7 +28275,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>1368</v>
       </c>
@@ -28286,7 +28286,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>1371</v>
       </c>
@@ -28297,7 +28297,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>1374</v>
       </c>
@@ -28305,7 +28305,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>1376</v>
       </c>
@@ -28313,27 +28313,27 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>1382</v>
       </c>
@@ -28341,17 +28341,17 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>1386</v>
       </c>
@@ -28362,32 +28362,32 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>1391</v>
       </c>
@@ -28395,12 +28395,12 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>1394</v>
       </c>
@@ -28408,12 +28408,12 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>1397</v>
       </c>
@@ -28421,12 +28421,12 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>1399</v>
       </c>
@@ -28443,27 +28443,27 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>1405</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>1409</v>
       </c>
@@ -28503,7 +28503,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>1409</v>
       </c>
@@ -28529,7 +28529,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>1409</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>1425</v>
       </c>
@@ -28578,7 +28578,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>1425</v>
       </c>
@@ -28604,7 +28604,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" ht="370.5" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>1425</v>
       </c>
@@ -28630,7 +28630,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>1425</v>
       </c>
@@ -28656,7 +28656,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>1425</v>
       </c>
@@ -28682,7 +28682,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>1425</v>
       </c>
@@ -28705,7 +28705,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>1425</v>
       </c>
@@ -28731,7 +28731,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>1460</v>
       </c>
@@ -28757,7 +28757,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>1460</v>
       </c>
@@ -28771,7 +28771,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>1466</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>1468</v>
       </c>
@@ -28787,7 +28787,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>1470</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>1472</v>
       </c>
@@ -28803,17 +28803,17 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>1476</v>
       </c>
@@ -28821,7 +28821,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>1478</v>
       </c>
@@ -28835,37 +28835,37 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>1485</v>
       </c>
@@ -28873,12 +28873,12 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>1488</v>
       </c>
@@ -28886,7 +28886,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>1490</v>
       </c>
@@ -28894,12 +28894,12 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>1493</v>
       </c>
@@ -28907,12 +28907,12 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>1496</v>
       </c>
@@ -28923,22 +28923,22 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>1499</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>1502</v>
       </c>
@@ -28946,12 +28946,12 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>1505</v>
       </c>
@@ -28959,12 +28959,12 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>1508</v>
       </c>
@@ -28972,22 +28972,22 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>1513</v>
       </c>
@@ -28995,12 +28995,12 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>1516</v>
       </c>
@@ -29008,12 +29008,12 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>1519</v>
       </c>
@@ -29024,7 +29024,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>1522</v>
       </c>
@@ -29032,12 +29032,12 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>1525</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>1526</v>
       </c>
@@ -29053,7 +29053,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>1528</v>
       </c>
@@ -29061,7 +29061,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>1530</v>
       </c>
@@ -29069,7 +29069,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>1532</v>
       </c>
@@ -29077,7 +29077,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>1534</v>
       </c>
@@ -29085,22 +29085,22 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>1538</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>1540</v>
       </c>
@@ -29116,12 +29116,12 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>1543</v>
       </c>
@@ -29132,7 +29132,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>1546</v>
       </c>
@@ -29140,7 +29140,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>1548</v>
       </c>
@@ -29148,17 +29148,17 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>1551</v>
       </c>
@@ -29175,7 +29175,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>1555</v>
       </c>
@@ -29183,57 +29183,57 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>1561</v>
       </c>
@@ -29247,7 +29247,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>1565</v>
       </c>
@@ -29273,7 +29273,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>1565</v>
       </c>
@@ -29287,7 +29287,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>1572</v>
       </c>
@@ -29295,67 +29295,67 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>1581</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>1583</v>
       </c>
@@ -29363,22 +29363,22 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>1588</v>
       </c>
@@ -29386,7 +29386,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>1590</v>
       </c>
@@ -29394,17 +29394,17 @@
         <v>908</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>1592</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>1593</v>
       </c>
@@ -29418,7 +29418,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>1597</v>
       </c>
@@ -29426,7 +29426,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>1599</v>
       </c>
@@ -29434,7 +29434,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>1601</v>
       </c>
@@ -29442,22 +29442,22 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>1605</v>
       </c>
@@ -29465,12 +29465,12 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>1607</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>1608</v>
       </c>
@@ -29478,17 +29478,17 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>1611</v>
       </c>
@@ -29502,57 +29502,57 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>1618</v>
       </c>
@@ -29566,7 +29566,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>1622</v>
       </c>
@@ -29589,7 +29589,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>1622</v>
       </c>
@@ -29612,7 +29612,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>1622</v>
       </c>
@@ -29635,7 +29635,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>1622</v>
       </c>
@@ -29658,7 +29658,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A729" t="s">
         <v>1622</v>
       </c>
@@ -29681,7 +29681,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>1622</v>
       </c>
@@ -29704,7 +29704,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>1622</v>
       </c>
@@ -29727,7 +29727,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>1622</v>
       </c>
